--- a/Smeta/Smeta_1/shablon_smety.xlsx
+++ b/Smeta/Smeta_1/shablon_smety.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Git\Smeta\Smeta\Smeta_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Диплом\Smeta\Smeta\Smeta_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9091555-0345-43F4-A8D9-52EE8B0E5CA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smeta" sheetId="2" r:id="rId1"/>
@@ -32,9 +33,6 @@
     <t>Приложение №1</t>
   </si>
   <si>
-    <t>на проектно-изыскательские работы</t>
-  </si>
-  <si>
     <t>Наименование проектной организации.</t>
   </si>
   <si>
@@ -45,9 +43,6 @@
   </si>
   <si>
     <t>Наименование и характеристика работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смета </t>
   </si>
   <si>
     <t>Стоимость, руб. коп.</t>
@@ -77,13 +72,22 @@
     <t>А. В. Вирочкин</t>
   </si>
   <si>
-    <t xml:space="preserve">к договору № ________ от ____________ </t>
+    <t>Смета на проектно-изыскательские работы</t>
+  </si>
+  <si>
+    <t>к договору №</t>
+  </si>
+  <si>
+    <t>от</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,12 +113,12 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,35 +178,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -210,17 +190,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -231,18 +212,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,70 +538,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -626,43 +611,47 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -672,97 +661,93 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="3"/>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -772,7 +757,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -782,7 +767,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -792,7 +777,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -802,7 +787,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -812,7 +797,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -822,7 +807,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -832,7 +817,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -842,7 +827,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -852,7 +837,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -862,7 +847,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -872,7 +857,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -882,7 +867,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -892,7 +877,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -902,7 +887,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -912,7 +897,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -922,7 +907,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -932,7 +917,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -942,7 +927,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -952,7 +937,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -962,7 +947,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -972,7 +957,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -982,7 +967,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -992,7 +977,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1002,7 +987,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1012,7 +997,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1022,7 +1007,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1032,7 +1017,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1042,7 +1027,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1052,7 +1037,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1062,7 +1047,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1072,7 +1057,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1082,7 +1067,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1092,7 +1077,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1102,7 +1087,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1112,7 +1097,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1122,7 +1107,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1132,7 +1117,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1142,7 +1127,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1152,7 +1137,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1162,7 +1147,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1172,7 +1157,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1182,7 +1167,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1192,7 +1177,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1202,7 +1187,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1212,7 +1197,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1222,7 +1207,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1232,7 +1217,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1242,7 +1227,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1252,7 +1237,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1262,7 +1247,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1272,7 +1257,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1282,7 +1267,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1292,7 +1277,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1302,7 +1287,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1312,7 +1297,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1322,7 +1307,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1332,7 +1317,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1342,7 +1327,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1352,7 +1337,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1362,7 +1347,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1372,7 +1357,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1382,7 +1367,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1392,7 +1377,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1402,7 +1387,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1412,7 +1397,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1422,7 +1407,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1432,7 +1417,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1442,7 +1427,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1452,7 +1437,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1462,7 +1447,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1472,7 +1457,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1482,7 +1467,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1492,7 +1477,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1502,7 +1487,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1512,7 +1497,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1522,7 +1507,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1532,7 +1517,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1542,7 +1527,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1552,7 +1537,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1562,7 +1547,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1572,7 +1557,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1582,7 +1567,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1592,7 +1577,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1602,7 +1587,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1612,7 +1597,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1622,7 +1607,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1632,7 +1617,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1642,7 +1627,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1652,7 +1637,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1662,7 +1647,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1672,7 +1657,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1682,7 +1667,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1692,7 +1677,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1702,7 +1687,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1712,7 +1697,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1722,7 +1707,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1732,7 +1717,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1742,7 +1727,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1752,7 +1737,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1762,7 +1747,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1772,7 +1757,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1782,7 +1767,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1792,7 +1777,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1802,7 +1787,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1812,7 +1797,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1822,7 +1807,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1832,7 +1817,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1842,7 +1827,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1852,7 +1837,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1862,7 +1847,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1872,7 +1857,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1882,7 +1867,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1892,7 +1877,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1902,7 +1887,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1912,7 +1897,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1922,7 +1907,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1932,7 +1917,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1942,7 +1927,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1952,7 +1937,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1962,7 +1947,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1972,7 +1957,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1982,7 +1967,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1992,7 +1977,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2002,7 +1987,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2012,7 +1997,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2022,7 +2007,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2032,7 +2017,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2042,7 +2027,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2052,7 +2037,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2062,7 +2047,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2072,7 +2057,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2082,7 +2067,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2092,7 +2077,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2102,7 +2087,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2112,7 +2097,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2122,7 +2107,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2132,7 +2117,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2142,7 +2127,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2152,7 +2137,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2162,7 +2147,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2172,7 +2157,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2182,7 +2167,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2192,7 +2177,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2202,7 +2187,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2212,7 +2197,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2222,7 +2207,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2232,7 +2217,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2242,7 +2227,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2252,7 +2237,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2262,7 +2247,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2272,7 +2257,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2282,7 +2267,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2292,7 +2277,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2302,7 +2287,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2312,7 +2297,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2322,7 +2307,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2332,7 +2317,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2342,7 +2327,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2352,7 +2337,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2362,7 +2347,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2372,7 +2357,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2382,7 +2367,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2392,7 +2377,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2402,7 +2387,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2412,7 +2397,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2422,7 +2407,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2432,7 +2417,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2442,45 +2427,16 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A8:C8"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.59055118110236204" bottom="0.59055118110236204" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
